--- a/Assets/ExcelDataTables/StageData.xlsx
+++ b/Assets/ExcelDataTables/StageData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSH\Desktop\Unity Project\UnityKoreaAward\Assets\ExcelDataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\UnityKoreaAward\Assets\ExcelDataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACAD4FD-1850-40C4-AFB0-E8C90BD5104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2E60F1-F60B-4FC4-A63F-5F68B0439AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="615" windowWidth="26505" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
